--- a/Data/Guide.xlsx
+++ b/Data/Guide.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="24795" windowHeight="8070" activeTab="2"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="24795" windowHeight="8070" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Guide.json" sheetId="1" r:id="rId1"/>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>TriggerScene</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -217,6 +217,18 @@
   </si>
   <si>
     <t>SelectRoomScene,onRoomSelected,evt.room==10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test@</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a,b</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -599,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -616,7 +628,7 @@
     <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -638,8 +650,11 @@
       <c r="G1" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -661,8 +676,11 @@
       <c r="G2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -684,8 +702,11 @@
       <c r="G3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -708,7 +729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -735,10 +756,11 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G1" r:id="rId1"/>
+    <hyperlink ref="H1" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -747,7 +769,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -782,7 +804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -830,8 +852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -848,7 +870,7 @@
       <c r="B1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -876,9 +898,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/Guide.xlsx
+++ b/Data/Guide.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="24795" windowHeight="8070" activeTab="3"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="24795" windowHeight="8070" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Guide.json" sheetId="1" r:id="rId1"/>
     <sheet name="TriggerButton" sheetId="2" r:id="rId2"/>
     <sheet name="Subs" sheetId="3" r:id="rId3"/>
     <sheet name="Options" sheetId="4" r:id="rId4"/>
+    <sheet name="Notes" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -108,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>TriggerScene</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -229,6 +230,26 @@
   </si>
   <si>
     <t>a,b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Notes@#anchor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TriggerButton/Notes@#join</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级房</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -766,10 +787,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -778,20 +799,26 @@
     <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>16</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -852,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -900,4 +927,47 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="28.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/Guide.xlsx
+++ b/Data/Guide.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="24795" windowHeight="8070" activeTab="4"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="24795" windowHeight="8070" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Guide.json" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Subs" sheetId="3" r:id="rId3"/>
     <sheet name="Options" sheetId="4" r:id="rId4"/>
     <sheet name="Notes" sheetId="5" r:id="rId5"/>
+    <sheet name="Labels" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -109,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>TriggerScene</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -250,6 +251,22 @@
   </si>
   <si>
     <t>高级房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Label</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>势如破竹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Labels#anchor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guide/Labels#join</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -632,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -647,9 +664,10 @@
     <col min="5" max="5" width="23.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -668,14 +686,17 @@
       <c r="F1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -700,8 +721,11 @@
       <c r="H2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -726,8 +750,11 @@
       <c r="H3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -749,8 +776,11 @@
       <c r="G4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -772,16 +802,15 @@
       <c r="G5">
         <v>4</v>
       </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="G1" r:id="rId1"/>
-    <hyperlink ref="H1" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -789,9 +818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -933,7 +960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -970,4 +997,39 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="28.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/Guide.xlsx
+++ b/Data/Guide.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="24795" windowHeight="8070" activeTab="5"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="24795" windowHeight="8070" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Guide.json" sheetId="1" r:id="rId1"/>
@@ -214,59 +214,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>SelectRoomScene,onRoomSelected,evt.room==10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test@</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a,b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Notes@#anchor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TriggerButton/Notes@#join</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Label</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>势如破竹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Labels#anchor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guide/Labels#join</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Params@</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SelectRoomScene,onRoomSelected,evt.room==10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test@</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a,b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Notes@#anchor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TriggerButton/Notes@#join</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Note</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标准房</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级房</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Label</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>势如破竹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Labels#anchor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Guide/Labels#join</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -652,7 +652,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -690,10 +690,10 @@
         <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -719,7 +719,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -748,7 +748,7 @@
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -834,7 +834,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -906,15 +906,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
@@ -925,7 +925,7 @@
         <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -947,7 +947,7 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -971,10 +971,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
         <v>32</v>
-      </c>
-      <c r="B1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -982,7 +982,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -990,7 +990,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1003,7 +1003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -1014,10 +1014,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -1025,7 +1025,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Guide.xlsx
+++ b/Data/Guide.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="24795" windowHeight="8070" activeTab="3"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="24795" windowHeight="8070" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Guide.json" sheetId="1" r:id="rId1"/>
@@ -274,7 +274,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,15 +305,6 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -332,25 +323,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -652,7 +636,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -818,12 +802,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
@@ -858,18 +845,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>24</v>
       </c>
       <c r="B1" t="s">
@@ -894,11 +881,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -906,7 +890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
